--- a/개발 7팀 최종 팀프로젝트 산출물 제출/영화관정보(리액트) 코드리뷰/4) 개발 5팀_프로젝트_GanttChart.xlsx
+++ b/개발 7팀 최종 팀프로젝트 산출물 제출/영화관정보(리액트) 코드리뷰/4) 개발 5팀_프로젝트_GanttChart.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo_14\Desktop\0602\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbfjd\Documents\5team\개발 7팀 최종 팀프로젝트 산출물 제출\영화관정보(리액트) 코드리뷰\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB82389-A84A-4A00-BA22-7ED1A2A41214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="3555" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="3555" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="간트차트_Gantt Chart" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>5주차</t>
   </si>
@@ -133,13 +132,17 @@
   </si>
   <si>
     <t>DB설계(리뷰)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>About 게시판 작성</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="dd"/>
@@ -631,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -668,9 +671,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,22 +746,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,56 +812,29 @@
     <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -845,35 +845,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFD7E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC1DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCD5B5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1210,7 +1182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK1048512"/>
   <sheetViews>
@@ -1218,7 +1190,7 @@
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1236,27 +1208,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="9" t="s">
         <v>25</v>
       </c>
@@ -1268,76 +1240,76 @@
       </c>
     </row>
     <row r="3" spans="1:37" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="38" t="s">
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="40"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="61"/>
     </row>
     <row r="4" spans="1:37" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="8">
         <v>44336</v>
       </c>
@@ -1424,1107 +1396,1201 @@
       </c>
     </row>
     <row r="5" spans="1:37" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="41" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="41" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="41" t="s">
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="41" t="s">
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="41" t="s">
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="43"/>
-    </row>
-    <row r="6" spans="1:37" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="64"/>
+    </row>
+    <row r="6" spans="1:37" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="20" t="s">
+      <c r="V6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="W6" s="20" t="s">
+      <c r="W6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="20" t="s">
+      <c r="Y6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="Z6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AA6" s="20" t="s">
+      <c r="AA6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="20" t="s">
+      <c r="AB6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="20" t="s">
+      <c r="AC6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AD6" s="20" t="s">
+      <c r="AD6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AE6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AF6" s="20" t="s">
+      <c r="AF6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AG6" s="20" t="s">
+      <c r="AG6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AH6" s="20" t="s">
+      <c r="AH6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AI6" s="20" t="s">
+      <c r="AI6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="20" t="s">
+      <c r="AJ6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AK6" s="21" t="s">
+      <c r="AK6" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24">
         <v>44336</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>44363</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>28</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="28" t="str">
+      <c r="J7" s="27" t="str">
         <f t="shared" ref="J7:Y14" si="0">IF(AND(J$4&gt;=$F7,J$4&lt;=$G7)," ","")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="X7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Z7" s="28" t="str">
+      <c r="K7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z7" s="27" t="str">
         <f t="shared" ref="Z7:AK14" si="1">IF(AND(Z$4&gt;=$F7,Z$4&lt;=$G7)," ","")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AA7" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AB7" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AC7" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AD7" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AE7" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AF7" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AG7" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AH7" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AI7" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AJ7" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AK7" s="29" t="str">
+      <c r="AA7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AD7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AE7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AF7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AI7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK7" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>44336</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>44363</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>28</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="X8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Z8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AA8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AB8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AC8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AD8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AE8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AF8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AG8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AH8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AI8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AJ8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AK8" s="30" t="str">
+      <c r="J8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AD8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AE8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AF8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AI8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK8" s="29" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>44336</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>44363</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>28</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="X9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Z9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AA9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AB9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AC9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AD9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AE9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AF9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AG9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AH9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AI9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AJ9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AK9" s="30" t="str">
+      <c r="J9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AD9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AE9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AF9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AI9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK9" s="29" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>44336</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>44363</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>28</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="X10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Z10" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AA10" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AB10" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AC10" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AD10" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AE10" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AF10" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AG10" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AH10" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AI10" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AJ10" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AK10" s="30" t="str">
+      <c r="I10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AD10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AE10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AF10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AI10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK10" s="29" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>44336</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>44363</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>28</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="X11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Z11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AA11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AB11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AC11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AD11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AE11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AF11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AG11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AH11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AI11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AJ11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AK11" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
+      <c r="J11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AD11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AE11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AF11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AI11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK11" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="50"/>
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>44336</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>44363</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>28</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="30"/>
+      <c r="I12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AD12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AE12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AF12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AI12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK12" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="13" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AC13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AD13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AE13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AF13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AG13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AH13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AI13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AJ13" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AK13" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F13" s="24">
+        <v>44336</v>
+      </c>
+      <c r="G13" s="24">
+        <v>44363</v>
+      </c>
+      <c r="H13" s="12">
+        <v>28</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AD13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AE13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AF13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AI13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK13" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z14" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA14" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB14" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AC14" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AD14" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AE14" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AF14" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AG14" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AH14" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AI14" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AJ14" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AK14" s="37" t="str">
+      <c r="A14" s="51"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AE14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AF14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AG14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AJ14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK14" s="36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2582,6 +2648,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J3:U3"/>
+    <mergeCell ref="V3:AK3"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:S5"/>
+    <mergeCell ref="T5:Z5"/>
+    <mergeCell ref="AA5:AG5"/>
+    <mergeCell ref="AH5:AK5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="A1:F2"/>
@@ -2593,22 +2666,15 @@
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:U3"/>
-    <mergeCell ref="V3:AK3"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:S5"/>
-    <mergeCell ref="T5:Z5"/>
-    <mergeCell ref="AA5:AG5"/>
-    <mergeCell ref="AH5:AK5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J7:AK14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1048576">
       <formula1>$G$2:$I$2</formula1>
     </dataValidation>
   </dataValidations>
